--- a/forwardprimer-v3_22.xlsx
+++ b/forwardprimer-v3_22.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_22" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2017-TGACCTCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTCTCTTCGTCGGCAGCGTC</t>
+    <t>F2017-AACTCTCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTCTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2018-TGTCTTCAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTTCAGGTCGTCGGCAGCGTC</t>
+    <t>F2018-ACAACTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACTCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2019-ATCGAGAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGAGAGTCGTCGGCAGCGTC</t>
+    <t>F2019-CATGGATGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGGATGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2020-TTCGTAGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTAGGATTCGTCGGCAGCGTC</t>
+    <t>F2020-CTCCAGAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCCAGAGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2021-AACGTAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGTAGTCTTCGTCGGCAGCGTC</t>
+    <t>F2021-CTAGTAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGTAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2022-GACAAGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAAGTCGTTCGTCGGCAGCGTC</t>
+    <t>F2022-ACTGCTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGCTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2023-GCAAGTGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTGTACTCGTCGGCAGCGTC</t>
+    <t>F2023-AAGCTAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2024-GGACCTTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACCTTCTTTCGTCGGCAGCGTC</t>
+    <t>F2024-AGTCTCTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCTCTCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2025-CCTTGCTCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGCTCTTTCGTCGGCAGCGTC</t>
+    <t>F2025-CAACGTTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACGTTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F2026-ACACTGAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTGAGGTTCGTCGGCAGCGTC</t>
+    <t>F2026-TCAACCTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAACCTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2027-ATCACACGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCACACGTGTCGTCGGCAGCGTC</t>
+    <t>F2027-AGCATCGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCATCGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2028-AGTCCACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCACTGATCGTCGGCAGCGTC</t>
+    <t>F2028-TCAAGCTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2029-TGTGTCCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTCCAAGTCGTCGGCAGCGTC</t>
+    <t>F2029-CGTCTTCTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCTTCTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2030-TGAGCACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCACCAATCGTCGGCAGCGTC</t>
+    <t>F2030-ACCTAGTTGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTAGTTGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2031-AAGATGCTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGATGCTCTTCGTCGGCAGCGTC</t>
+    <t>F2031-AGACTCGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2032-ACGAGTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGAGTCTGATCGTCGGCAGCGTC</t>
+    <t>F2032-CTGAAGGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAAGGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2033-GTAGAGTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGAGTAGGTCGTCGGCAGCGTC</t>
+    <t>F2033-GTACAGCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2034-AGTTCGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCGAAGGTCGTCGGCAGCGTC</t>
+    <t>F2034-GAAGTTGAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTTGAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F2035-AACCTCTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCTCTAGCTCGTCGGCAGCGTC</t>
+    <t>F2035-TACGTGCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F2036-ACAGGACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGGACTGATCGTCGGCAGCGTC</t>
+    <t>F2036-TCGAAGAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGAAGAGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F2037-CTAGACACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGACACAGTCGTCGGCAGCGTC</t>
+    <t>F2037-ACTTCGTACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTTCGTACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F2038-AAGCACCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACCATCTCGTCGGCAGCGTC</t>
+    <t>F2038-CCTGTACAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGTACAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F2039-AGACTCTTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTCTTGGTCGTCGGCAGCGTC</t>
+    <t>F2039-GCTTGTTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGTTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F2040-ATGTGCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTGCAACCTCGTCGGCAGCGTC</t>
+    <t>F2040-CAGGTGACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGGTGACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F2041-GAACTGTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACTGTGAGTCGTCGGCAGCGTC</t>
+    <t>F2041-GTTGCAACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGCAACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F2042-ATCTGTCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGTCACTTCGTCGGCAGCGTC</t>
+    <t>F2042-GCACTTCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCACTTCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F2043-CAGACTACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGACTACAATCGTCGGCAGCGTC</t>
+    <t>F2043-AACTTCGACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTTCGACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F2044-GTGTACTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTACTAGGTCGTCGGCAGCGTC</t>
+    <t>F2044-TTGCATCGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGCATCGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F2045-GAAGGAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGAGTTGTCGTCGGCAGCGTC</t>
+    <t>F2045-TACGTTGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTTGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F2046-AGAACTCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACTCTGATCGTCGGCAGCGTC</t>
+    <t>F2046-CAACTTGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACTTGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F2047-GTAGACTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGACTCACTCGTCGGCAGCGTC</t>
+    <t>F2047-CACTTCCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTTCCACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F2048-AACACAGGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACACAGGTCTCGTCGGCAGCGTC</t>
+    <t>F2048-ACACTCTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACTCTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F2049-GTGGAGTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGGAGTGTATCGTCGGCAGCGTC</t>
+    <t>F2049-ACAGCAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGCAGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F2050-AGATGGTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGGTCAATCGTCGGCAGCGTC</t>
+    <t>F2050-GAGACTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGACTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F2051-TCAAGGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGGAACTTCGTCGGCAGCGTC</t>
+    <t>F2051-ATGGTTGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGGTTGGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F2052-TGACCTTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACCTTCACTCGTCGGCAGCGTC</t>
+    <t>F2052-GTAGGACAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGACAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F2053-CTTCATCGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCATCGTGTCGTCGGCAGCGTC</t>
+    <t>F2053-GTTGGAAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTGGAAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F2054-GAGAAGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAAGACAATCGTCGGCAGCGTC</t>
+    <t>F2054-GTCTTCATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTCATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F2055-ACGTAGTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTAGTAGGTCGTCGGCAGCGTC</t>
+    <t>F2055-CGATGAGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATGAGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F2056-ATGCTGCTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGCTGCTCATCGTCGGCAGCGTC</t>
+    <t>F2056-GCAACATGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAACATGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F2057-CATGGATGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGGATGCATCGTCGGCAGCGTC</t>
+    <t>F2057-TTGTGACCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTGACCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F2058-TCCAACAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACAACTTCGTCGGCAGCGTC</t>
+    <t>F2058-ACCACATGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCACATGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F2059-TCTCTGACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTGACGATCGTCGGCAGCGTC</t>
+    <t>F2059-CATGACACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGACACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F2060-AGGTTCCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTTCCTAGTCGTCGGCAGCGTC</t>
+    <t>F2060-TGGAACTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGAACTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F2061-ATGTTGCAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTTGCAGCTCGTCGGCAGCGTC</t>
+    <t>F2061-GATCGATGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCGATGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F2062-TCCATCTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATCTACCTCGTCGGCAGCGTC</t>
+    <t>F2062-GTCTTGGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTGGAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F2063-ACACCTACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACCTACATTCGTCGGCAGCGTC</t>
+    <t>F2063-ACAGAACGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGAACGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F2064-CAAGAGACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAGACTGTCGTCGGCAGCGTC</t>
+    <t>F2064-ACATGAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATGAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F2065-TACGACACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGACACTGTCGTCGGCAGCGTC</t>
+    <t>F2065-GAACATCCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACATCCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F2066-GTTCACCTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTCACCTGTTCGTCGGCAGCGTC</t>
+    <t>F2066-TGTGGACTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGGACTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F2067-AGACATCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACATCCAATCGTCGGCAGCGTC</t>
+    <t>F2067-AGCATCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCATCAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F2068-GGTACAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACAGTCATCGTCGGCAGCGTC</t>
+    <t>F2068-ACATCTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACATCTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F2069-AAGAGAGAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGAGAGTTCGTCGGCAGCGTC</t>
+    <t>F2069-GCAAGTTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F2070-GAACACTCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACACTCTGTCGTCGGCAGCGTC</t>
+    <t>F2070-GGTGAAGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTGAAGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F2071-AGGTACGTTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTACGTTCTCGTCGGCAGCGTC</t>
+    <t>F2071-AAGAACTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAACTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F2072-GGATGTACGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGATGTACGTTCGTCGGCAGCGTC</t>
+    <t>F2072-AGTTCCACGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCCACGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F2073-GGTACACTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGTACACTAGTCGTCGGCAGCGTC</t>
+    <t>F2073-GGTACTGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACTGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F2074-CACGTAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACGTAGGAATCGTCGGCAGCGTC</t>
+    <t>F2074-AGCAGACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGACTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F2075-AAGAAGCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGAAGCTGATCGTCGGCAGCGTC</t>
+    <t>F2075-GAGTCACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTCACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F2076-GAAGGAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGGAGCAATCGTCGGCAGCGTC</t>
+    <t>F2076-GAAGCTGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCTGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F2077-TCTTCACATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCACATGTCGTCGGCAGCGTC</t>
+    <t>F2077-GCATCAAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCAAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F2078-AGCTTCTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCTTCTACGTCGTCGGCAGCGTC</t>
+    <t>F2078-GGAAGGACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGGACAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F2079-TCTGACACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGACACCTTCGTCGGCAGCGTC</t>
+    <t>F2079-TGTGACAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGACAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F2080-TCAGCTTGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCTTGCTTCGTCGGCAGCGTC</t>
+    <t>F2080-GCTCTTGAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTCTTGAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F2081-GATCTAGACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATCTAGACCTCGTCGGCAGCGTC</t>
+    <t>F2081-GTACGAGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACGAGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F2082-TAGAACAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAACAGCATCGTCGGCAGCGTC</t>
+    <t>F2082-TTCTTGACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTTGACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F2083-GTGACACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGACACCTATCGTCGGCAGCGTC</t>
+    <t>F2083-ACAGGAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGGAGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F2084-ACACATGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACATGGAATCGTCGGCAGCGTC</t>
+    <t>F2084-GACCATGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCATGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F2085-GTGAAGCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGAAGCATCTCGTCGGCAGCGTC</t>
+    <t>F2085-TCAGTGTACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTGTACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F2086-TTCGAGGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGAGGACTTCGTCGGCAGCGTC</t>
+    <t>F2086-GGTCAGTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCAGTTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F2087-ATCGACACAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGACACACTCGTCGGCAGCGTC</t>
+    <t>F2087-GGTACACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACACCTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F2088-TGTGTCGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTGTCGACTTCGTCGGCAGCGTC</t>
+    <t>F2088-TTGGAGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGGAGAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F2089-AGAACAGCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAACAGCTGTCGTCGGCAGCGTC</t>
+    <t>F2089-CAGTAGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTAGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F2090-ACAGTGACTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTGACTCTCGTCGGCAGCGTC</t>
+    <t>F2090-GCTAGTACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTAGTACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F2091-CTCACTGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCACTGTGATCGTCGGCAGCGTC</t>
+    <t>F2091-TACAGAGAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACAGAGAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F2092-ACCATGACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCATGACGATCGTCGGCAGCGTC</t>
+    <t>F2092-AGGAAGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAAGTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F2093-CTTCAAGAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCAAGAGGTCGTCGGCAGCGTC</t>
+    <t>F2093-ATGATGGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGATGGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2094-GTTGTGACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTGACAATCGTCGGCAGCGTC</t>
+    <t>F2094-AACTGAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGAACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2095-ATGTACCTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTACCTGCTCGTCGGCAGCGTC</t>
+    <t>F2095-GCAAGTAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTAGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2096-AGAAGTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAAGTGACATCGTCGGCAGCGTC</t>
+    <t>F2096-GAAGAGTACC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGAGTACCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2097-ACAGACTACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGACTACTTCGTCGGCAGCGTC</t>
+    <t>F2097-CTGAGACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2098-AAGTGGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTGGATCGTCGTCGGCAGCGTC</t>
+    <t>F2098-ATCTACGTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTACGTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2099-CAACAGCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGCAGTTCGTCGGCAGCGTC</t>
+    <t>F2099-AACTCTGCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTGCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2100-ATCTGCAGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTGCAGTGTCGTCGGCAGCGTC</t>
+    <t>F2100-AGACACCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACACCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2101-CAGAACATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGAACATGGTCGTCGGCAGCGTC</t>
+    <t>F2101-ACAACATGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACATGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2102-AGTGAGTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTGAGTAGCTCGTCGGCAGCGTC</t>
+    <t>F2102-CACTTGATGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACTTGATGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2103-ACGTACTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTACTACCTCGTCGGCAGCGTC</t>
+    <t>F2103-GGTCATGTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCATGTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2104-TCTCTTCCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTTCCATTCGTCGGCAGCGTC</t>
+    <t>F2104-ACAAGCACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAAGCACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2105-TGCAGAAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCAGAAGACTCGTCGGCAGCGTC</t>
+    <t>F2105-GACCTTCATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCTTCATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2106-AGAGGAAGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGAAGGATCGTCGGCAGCGTC</t>
+    <t>F2106-GATCCTTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCCTTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2107-TAGGTGTTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGTGTTCATCGTCGGCAGCGTC</t>
+    <t>F2107-ACTGAGCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAGCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2108-TGAGTCTAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTCTAGCTCGTCGGCAGCGTC</t>
+    <t>F2108-GGTTCAACTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTTCAACTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2109-TGCTGACGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGACGAATCGTCGGCAGCGTC</t>
+    <t>F2109-GCTTGGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGGTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2110-TTCCACAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCCACAGGTTCGTCGGCAGCGTC</t>
+    <t>F2110-GGTCAAGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTCAAGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2111-GGACTCTCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACTCTCTATCGTCGGCAGCGTC</t>
+    <t>F2111-AGCAGTGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGTGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2112-CTGAACTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAACTACGTCGTCGGCAGCGTC</t>
+    <t>F2112-ACCTCAAGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTCAAGACTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
